--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/15/seed4/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.02679999999999</v>
+        <v>-12.11639999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.9665</v>
+        <v>12.7192</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.2497</v>
+        <v>12.0672</v>
       </c>
     </row>
     <row r="7">
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>8.519600000000006</v>
+        <v>8.230200000000004</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.94979999999999</v>
+        <v>11.804</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.0583</v>
+        <v>-13.36599999999999</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3044</v>
+        <v>13.48099999999999</v>
       </c>
     </row>
     <row r="12">
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.558400000000003</v>
+        <v>4.668400000000003</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.611500000000002</v>
+        <v>5.5933</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.456000000000001</v>
+        <v>-7.554600000000002</v>
       </c>
       <c r="E21" t="n">
-        <v>13.46100000000001</v>
+        <v>13.44600000000001</v>
       </c>
     </row>
     <row r="22">
